--- a/testcode/leader数量对gather开销的影响.xlsx
+++ b/testcode/leader数量对gather开销的影响.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作空间\GLEX-Alltoall-paper\testcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjt\OneDrive\资料\文档\GLEX-Alltoall-paper\testcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7BFC6A-62AD-443B-81BF-562DE228FFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{494B4EC5-AEC6-4653-B5E0-4EEF5E08DCFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAB81BFC-7941-4487-9488-9345427DF3E7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HPC-广州" sheetId="1" r:id="rId1"/>
+    <sheet name="HPC-天津1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'HPC-天津1'!$H$44:$H$63</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'HPC-天津1'!$I$44:$I$63</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'HPC-天津1'!$J$44:$J$63</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'HPC-天津1'!$H$44:$H$63</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'HPC-天津1'!$I$44:$I$63</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'HPC-天津1'!$J$44:$J$63</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="12">
   <si>
     <t>leaderN=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +75,10 @@
   </si>
   <si>
     <t>Improvement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPC-天津1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,28 +301,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>8.016098998822635E-3</c:v>
+                  <c:v>8.697109569991349E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7444079007141171E-2</c:v>
+                  <c:v>1.7663780969115982E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4915280436077306E-2</c:v>
+                  <c:v>3.3812639234989034E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5316953066197198E-2</c:v>
+                  <c:v>6.6242301919991725E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12785722609752442</c:v>
+                  <c:v>0.13110108696116043</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25439624368046443</c:v>
+                  <c:v>0.25757118422376496</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.49234319782676633</c:v>
+                  <c:v>0.50004883289383728</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94579096849672506</c:v>
+                  <c:v>0.95465987134466579</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.6568294664316077</c:v>
@@ -471,28 +484,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.5524874163617619E-2</c:v>
+                  <c:v>1.5638681300779899E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1175157296529327E-2</c:v>
+                  <c:v>3.1702393778405225E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.230807611645444E-2</c:v>
+                  <c:v>6.3404787556810449E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11848195001542734</c:v>
+                  <c:v>0.11963362203252538</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23369658241570149</c:v>
+                  <c:v>0.2363276892660148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45965660419705984</c:v>
+                  <c:v>0.46464845079369882</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89368897616320297</c:v>
+                  <c:v>0.90553690718762547</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7273893408775414</c:v>
+                  <c:v>1.7176104694843883</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3.013962386789387</c:v>
@@ -654,28 +667,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.6595192087930354E-2</c:v>
+                  <c:v>2.7712225854640712E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6834369993228717E-2</c:v>
+                  <c:v>5.6684823524201761E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11372007536916454</c:v>
+                  <c:v>0.11334287696099411</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21408486039534619</c:v>
+                  <c:v>0.21421025657117157</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42586078427974838</c:v>
+                  <c:v>0.4246613215371855</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83639346159212891</c:v>
+                  <c:v>0.8099583749419127</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6259882893909823</c:v>
+                  <c:v>1.6183806315872655</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0425632010300343</c:v>
+                  <c:v>3.0272440881837581</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5.3088226558154359</c:v>
@@ -837,28 +850,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4.8940888583008338E-2</c:v>
+                  <c:v>4.7554326793581403E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10001367374445724</c:v>
+                  <c:v>9.8842016866206139E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20031690760773882</c:v>
+                  <c:v>0.19810599831687287</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38044757080758418</c:v>
+                  <c:v>0.37509501002756435</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75187003808911923</c:v>
+                  <c:v>0.74382341457804291</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4696894491654655</c:v>
+                  <c:v>1.4575345390493641</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8495151963128831</c:v>
+                  <c:v>2.829364325556496</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2853317848962877</c:v>
+                  <c:v>5.2564345926696303</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>8.9919871208517801</c:v>
@@ -1238,7 +1251,1698 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10447209086421998"/>
+          <c:y val="4.7774158523344191E-2"/>
+          <c:w val="0.86500415249817397"/>
+          <c:h val="0.72853847666435845"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HPC-广州'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leaderN=1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'HPC-广州'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'HPC-天津1'!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.2141115012713842E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4732878316086711E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1975937753367952E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8250907198414452E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6712026893471791E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1915920176137821E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14190851243200794</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26175395171142307</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4770880854161611</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82375122552100355</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2981110150075599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8288776022771669</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0165388432040738</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6544672901521758</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8341153971733757</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9138556635800592</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9470596609372195</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9664640750146514</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.86132932949221</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0109452891363366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BFE8-480D-8E61-66255C31D846}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HPC-广州'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leaderN=2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'HPC-广州'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'HPC-天津1'!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.9599482009064842E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.393409927245147E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0718996210667355E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2229619230936221E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4068598971445785E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5828636087421153E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17252490364972728</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3158138219949112</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60996252264773776</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0049940960277257</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6798574827941233</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3385391267113103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9052220941572835</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3186272775517422</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4141268562219409</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8460786132083582</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.820904386074055</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8254460331093485</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7853167204841078</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9836195579846851</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BFE8-480D-8E61-66255C31D846}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HPC-广州'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leaderN=4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'HPC-广州'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'HPC-天津1'!$I$2:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.5852114988507121E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8918083462132926E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9391980608019391E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1584037793826016E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1193051545165623E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15887052982701108</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30840664098284537</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58467650802336235</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0894522483584075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8549324477319042</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8495151963128831</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9576572065532192</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5297338083293255</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6401937130061968</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6766554269251221</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3376039767105956</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.278555896529153</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2809031023411084</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.9053261379816031</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9797695478131949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BFE8-480D-8E61-66255C31D846}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HPC-广州'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>leaderN=8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'HPC-广州'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4194304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'HPC-天津1'!$J$2:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8.1141045958795562E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6744977051968299E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3474444680538076E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0840131211050317E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13596454830625218</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26575831305758313</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51392991389540932</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97146979474459194</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.775658393844153</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.019593538701367</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.3027093272639734</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2000145467529331</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5239573638646462</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6342828099794486</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6300537962806239</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.6445737381712311</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6258478734700725</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.6193626647835586</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0389596035440753</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5063196982753793</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BFE8-480D-8E61-66255C31D846}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1394845471"/>
+        <c:axId val="1394833407"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1394845471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
+                  <a:t>Size of single message</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.3762285453616902"/>
+              <c:y val="0.91203410831287812"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1394833407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1394833407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+                  <a:t>Gather Bandwidth (GB/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1394845471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3333333333333329E-2"/>
+          <c:y val="6.7113225430154549E-2"/>
+          <c:w val="0.44166666666666671"/>
+          <c:h val="0.22918307086614179"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'HPC-天津1'!$H$44:$H$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.40783810708216406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50283636670659559</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51331491549337427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47042581422246543</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46749118467449075</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48261331969144211</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39208232350871697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41594111920812976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30593392702315053</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39637684780048382</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24388623779107466</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.29676245122082895</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20985237526984088</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28462674696057272</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.30103339823273922</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.11589718220274814</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13321359116008072</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14139168321906834</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1368825359476302</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.10235051182607391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C16-4095-86CF-CC55C87F48EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'HPC-天津1'!$I$44:$I$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.48366152020054393</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4048801671959395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42771138629030814</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33903389523291644</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36417555277129282</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36914961410465208</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3465418476148634</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29681992425820064</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21036217303822943</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23981752251725358</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29388985518117589</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24183045339499423</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.22914063412613858</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26205219575599137</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26512566677879768</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.4220688339536286E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.1819017840721028E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.8281575415374638E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.21969616311890622</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20534389977447828</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C16-4095-86CF-CC55C87F48EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'HPC-天津1'!$J$44:$J$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.52998132986332802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44323295257874695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44586940595385316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37331760458561614</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41624878553295513</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40017109416992835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40414020921269955</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35074417673363129</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26921754281391141</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23582054141260739</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25469198346993971</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21603296648072778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15900233033815342</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1924793141612354</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16996540894717926</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9755668007937408E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.8613324813782647E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.1870550507116318E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.9501077375661481E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.21448910938190238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1C16-4095-86CF-CC55C87F48EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="247140304"/>
+        <c:axId val="270443808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="247140304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="270443808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="270443808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="247140304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1794,18 +3498,1037 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
+      <xdr:colOff>166686</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1827,6 +4550,85 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>166686</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CFFFAE-F7CD-4F3A-839D-B8CBE70DE7BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADFC260-6A04-4E09-9B79-1A336D012719}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2100,17 +4902,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2145,21 +4947,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8</v>
       </c>
       <c r="B2">
-        <v>23.951799999999999</v>
+        <v>22.0763</v>
       </c>
       <c r="C2">
-        <v>24.734500000000001</v>
+        <v>24.554500000000001</v>
       </c>
       <c r="D2">
-        <v>28.877400000000002</v>
+        <v>27.7134</v>
       </c>
       <c r="E2">
-        <v>31.384799999999998</v>
+        <v>32.299900000000001</v>
       </c>
       <c r="F2">
         <f>A2*24</f>
@@ -2167,36 +4969,36 @@
       </c>
       <c r="G2">
         <f>$F2/(1000*B2)</f>
-        <v>8.016098998822635E-3</v>
+        <v>8.697109569991349E-3</v>
       </c>
       <c r="H2">
         <f>2*$F2/(1000*C2)</f>
-        <v>1.5524874163617619E-2</v>
+        <v>1.5638681300779899E-2</v>
       </c>
       <c r="I2">
         <f>4*$F2/(1000*D2)</f>
-        <v>2.6595192087930354E-2</v>
+        <v>2.7712225854640712E-2</v>
       </c>
       <c r="J2">
         <f>8*$F2/(1000*E2)</f>
-        <v>4.8940888583008338E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4.7554326793581403E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>16</v>
       </c>
       <c r="B3">
-        <v>22.013200000000001</v>
+        <v>21.7394</v>
       </c>
       <c r="C3">
-        <v>24.635000000000002</v>
+        <v>24.225300000000001</v>
       </c>
       <c r="D3">
-        <v>27.0259</v>
+        <v>27.097200000000001</v>
       </c>
       <c r="E3">
-        <v>30.715800000000002</v>
+        <v>31.079899999999999</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F21" si="0">A3*24</f>
@@ -2204,36 +5006,36 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G21" si="1">$F3/(1000*B3)</f>
-        <v>1.7444079007141171E-2</v>
+        <v>1.7663780969115982E-2</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H21" si="2">2*$F3/(1000*C3)</f>
-        <v>3.1175157296529327E-2</v>
+        <v>3.1702393778405225E-2</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I21" si="3">4*$F3/(1000*D3)</f>
-        <v>5.6834369993228717E-2</v>
+        <v>5.6684823524201761E-2</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J21" si="4">8*$F3/(1000*E3)</f>
-        <v>0.10001367374445724</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>9.8842016866206139E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>32</v>
       </c>
       <c r="B4">
-        <v>21.996099999999998</v>
+        <v>22.7134</v>
       </c>
       <c r="C4">
-        <v>24.651700000000002</v>
+        <v>24.225300000000001</v>
       </c>
       <c r="D4">
-        <v>27.0137</v>
+        <v>27.1036</v>
       </c>
       <c r="E4">
-        <v>30.671399999999998</v>
+        <v>31.0137</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -2241,36 +5043,36 @@
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>3.4915280436077306E-2</v>
+        <v>3.3812639234989034E-2</v>
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>6.230807611645444E-2</v>
+        <v>6.3404787556810449E-2</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>0.11372007536916454</v>
+        <v>0.11334287696099411</v>
       </c>
       <c r="J4">
         <f t="shared" si="4"/>
-        <v>0.20031690760773882</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.19810599831687287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>64</v>
       </c>
       <c r="B5">
-        <v>23.516100000000002</v>
+        <v>23.1876</v>
       </c>
       <c r="C5">
-        <v>25.928000000000001</v>
+        <v>25.6784</v>
       </c>
       <c r="D5">
-        <v>28.698899999999998</v>
+        <v>28.682099999999998</v>
       </c>
       <c r="E5">
-        <v>32.2988</v>
+        <v>32.759700000000002</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -2278,36 +5080,36 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>6.5316953066197198E-2</v>
+        <v>6.6242301919991725E-2</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>0.11848195001542734</v>
+        <v>0.11963362203252538</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>0.21408486039534619</v>
+        <v>0.21421025657117157</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>0.38044757080758418</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.37509501002756435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>128</v>
       </c>
       <c r="B6">
-        <v>24.026800000000001</v>
+        <v>23.432300000000001</v>
       </c>
       <c r="C6">
-        <v>26.290500000000002</v>
+        <v>25.997800000000002</v>
       </c>
       <c r="D6">
-        <v>28.854500000000002</v>
+        <v>28.936</v>
       </c>
       <c r="E6">
-        <v>32.686500000000002</v>
+        <v>33.040100000000002</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -2315,36 +5117,36 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>0.12785722609752442</v>
+        <v>0.13110108696116043</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>0.23369658241570149</v>
+        <v>0.2363276892660148</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>0.42586078427974838</v>
+        <v>0.4246613215371855</v>
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>0.75187003808911923</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.74382341457804291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>256</v>
       </c>
       <c r="B7">
-        <v>24.151299999999999</v>
+        <v>23.8536</v>
       </c>
       <c r="C7">
-        <v>26.733000000000001</v>
+        <v>26.445799999999998</v>
       </c>
       <c r="D7">
-        <v>29.383299999999998</v>
+        <v>30.342300000000002</v>
       </c>
       <c r="E7">
-        <v>33.443800000000003</v>
+        <v>33.722700000000003</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -2352,36 +5154,36 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>0.25439624368046443</v>
+        <v>0.25757118422376496</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>0.45965660419705984</v>
+        <v>0.46464845079369882</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>0.83639346159212891</v>
+        <v>0.8099583749419127</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>1.4696894491654655</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.4575345390493641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>512</v>
       </c>
       <c r="B8">
-        <v>24.958200000000001</v>
+        <v>24.573599999999999</v>
       </c>
       <c r="C8">
-        <v>27.499500000000001</v>
+        <v>27.139700000000001</v>
       </c>
       <c r="D8">
-        <v>30.228999999999999</v>
+        <v>30.371099999999998</v>
       </c>
       <c r="E8">
-        <v>34.4985</v>
+        <v>34.744199999999999</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -2389,36 +5191,36 @@
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>0.49234319782676633</v>
+        <v>0.50004883289383728</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>0.89368897616320297</v>
+        <v>0.90553690718762547</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>1.6259882893909823</v>
+        <v>1.6183806315872655</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>2.8495151963128831</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2.829364325556496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1024</v>
       </c>
       <c r="B9">
-        <v>25.9846</v>
+        <v>25.743200000000002</v>
       </c>
       <c r="C9">
-        <v>28.454499999999999</v>
+        <v>28.616499999999998</v>
       </c>
       <c r="D9">
-        <v>32.309600000000003</v>
+        <v>32.473100000000002</v>
       </c>
       <c r="E9">
-        <v>37.198799999999999</v>
+        <v>37.403300000000002</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -2426,22 +5228,22 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>0.94579096849672506</v>
+        <v>0.95465987134466579</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>1.7273893408775414</v>
+        <v>1.7176104694843883</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>3.0425632010300343</v>
+        <v>3.0272440881837581</v>
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
-        <v>5.2853317848962877</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5.2564345926696303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2048</v>
       </c>
@@ -2478,7 +5280,7 @@
         <v>8.9919871208517801</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4096</v>
       </c>
@@ -2515,7 +5317,7 @@
         <v>13.22352292331543</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8192</v>
       </c>
@@ -2552,7 +5354,7 @@
         <v>16.489913339218354</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>16384</v>
       </c>
@@ -2589,7 +5391,7 @@
         <v>16.829364591079557</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32768</v>
       </c>
@@ -2626,7 +5428,7 @@
         <v>17.578809723386421</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>65536</v>
       </c>
@@ -2663,7 +5465,7 @@
         <v>16.715857658488243</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>131072</v>
       </c>
@@ -2700,7 +5502,7 @@
         <v>17.097044716496598</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>262144</v>
       </c>
@@ -2737,7 +5539,7 @@
         <v>17.100588121375207</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>524288</v>
       </c>
@@ -2774,7 +5576,7 @@
         <v>17.151723891163556</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1048576</v>
       </c>
@@ -2811,7 +5613,7 @@
         <v>16.965962330931614</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2097152</v>
       </c>
@@ -2848,7 +5650,7 @@
         <v>17.175032694793146</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4194304</v>
       </c>
@@ -2885,7 +5687,7 @@
         <v>16.183679552415175</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>7</v>
       </c>
@@ -2896,7 +5698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
@@ -2933,7 +5735,7 @@
         <v>4.6951944562469622E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16</v>
       </c>
@@ -2970,7 +5772,7 @@
         <v>9.4886272377963654E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>32</v>
       </c>
@@ -3007,7 +5809,7 @@
         <v>0.18984760280321852</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>64</v>
       </c>
@@ -3044,7 +5846,7 @@
         <v>0.35628441284688289</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>128</v>
       </c>
@@ -3081,7 +5883,7 @@
         <v>0.70654798868419233</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>256</v>
       </c>
@@ -3118,7 +5920,7 @@
         <v>1.3743390718625661</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>512</v>
       </c>
@@ -3155,7 +5957,7 @@
         <v>2.6500820871984403</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1024</v>
       </c>
@@ -3192,7 +5994,7 @@
         <v>4.9211545970624462</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2048</v>
       </c>
@@ -3229,7 +6031,7 @@
         <v>8.5014161243595012</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4096</v>
       </c>
@@ -3266,7 +6068,7 @@
         <v>13.792213258505788</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8192</v>
       </c>
@@ -3303,7 +6105,7 @@
         <v>19.904127964364353</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>16384</v>
       </c>
@@ -3340,7 +6142,7 @@
         <v>23.661875211553649</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32768</v>
       </c>
@@ -3377,7 +6179,7 @@
         <v>26.730181119858607</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>65536</v>
       </c>
@@ -3414,7 +6216,7 @@
         <v>24.381046863555863</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>131072</v>
       </c>
@@ -3451,7 +6253,7 @@
         <v>23.490921310557265</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>262144</v>
       </c>
@@ -3488,7 +6290,7 @@
         <v>22.090883474734351</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>524288</v>
       </c>
@@ -3525,7 +6327,7 @@
         <v>19.911561224166853</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1048576</v>
       </c>
@@ -3562,7 +6364,7 @@
         <v>19.614827747466876</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2097152</v>
       </c>
@@ -3599,7 +6401,7 @@
         <v>18.859192243741365</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4194304</v>
       </c>
@@ -3636,180 +6438,180 @@
         <v>17.258327843486871</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K43" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F44">
         <v>8</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" ref="G44:I59" si="10">(G23-G2)/G2</f>
-        <v>8.8777569685619215E-2</v>
+        <f>(G23-G2)/G2</f>
+        <v>3.5229194319688602E-3</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" si="10"/>
-        <v>-7.6389473979836219E-3</v>
+        <f t="shared" ref="G44:I59" si="10">(H23-H2)/H2</f>
+        <v>-1.4860641366665645E-2</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" si="10"/>
-        <v>4.259951259138911E-2</v>
+        <v>5.7405903059853729E-4</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" ref="J44:J78" si="11">(J23-J2)/J2</f>
-        <v>-4.0639720244663731E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J44:J63" si="11">(J23-J2)/J2</f>
+        <v>-1.2667243376749619E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F45">
         <v>16</v>
       </c>
       <c r="G45" s="2">
         <f t="shared" si="10"/>
-        <v>3.7755809287563931E-3</v>
+        <v>-8.7093714660926771E-3</v>
       </c>
       <c r="H45" s="2">
         <f t="shared" si="10"/>
-        <v>-9.361503631201749E-3</v>
+        <v>-2.5836624068072054E-2</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" si="10"/>
-        <v>-1.8931006192962022E-2</v>
+        <v>-1.6342740149705645E-2</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="11"/>
-        <v>-5.1267003545880145E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>-4.0020879921916538E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F46">
         <v>32</v>
       </c>
       <c r="G46" s="2">
         <f t="shared" si="10"/>
-        <v>9.0097059104583496E-4</v>
+        <v>3.3540677912114597E-2</v>
       </c>
       <c r="H46" s="2">
         <f t="shared" si="10"/>
-        <v>-8.8294540293430805E-3</v>
+        <v>-2.5973712672839957E-2</v>
       </c>
       <c r="I46" s="2">
         <f t="shared" si="10"/>
-        <v>-2.0518789250025347E-2</v>
+        <v>-1.7259133562488184E-2</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" si="11"/>
-        <v>-5.226371018576885E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+        <v>-4.1686751455374628E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F47">
         <v>64</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" si="10"/>
-        <v>2.3015842571638503E-3</v>
+        <v>-1.1699719973915345E-2</v>
       </c>
       <c r="H47" s="2">
         <f t="shared" si="10"/>
-        <v>-1.8310136455193866E-2</v>
+        <v>-2.7760529464326087E-2</v>
       </c>
       <c r="I47" s="2">
         <f t="shared" si="10"/>
-        <v>-2.2000715636661169E-2</v>
+        <v>-2.2573224965496113E-2</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" si="11"/>
-        <v>-6.3512451687914931E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+        <v>-5.0148886756182474E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F48">
         <v>128</v>
       </c>
       <c r="G48" s="2">
         <f t="shared" si="10"/>
-        <v>1.2528708990918591E-2</v>
+        <v>-1.2524494827113765E-2</v>
       </c>
       <c r="H48" s="2">
         <f t="shared" si="10"/>
-        <v>-1.8480147841182671E-2</v>
+        <v>-2.940770192828198E-2</v>
       </c>
       <c r="I48" s="2">
         <f t="shared" si="10"/>
-        <v>-2.7252898401707252E-2</v>
+        <v>-2.4505358545523253E-2</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" si="11"/>
-        <v>-6.0279100255295551E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.2">
+        <v>-5.011327307435761E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F49">
         <v>256</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" si="10"/>
-        <v>2.440593545709073E-3</v>
+        <v>-9.9159489467677206E-3</v>
       </c>
       <c r="H49" s="2">
         <f t="shared" si="10"/>
-        <v>-2.2777369581190456E-2</v>
+        <v>-3.3275942111631533E-2</v>
       </c>
       <c r="I49" s="2">
         <f t="shared" si="10"/>
-        <v>-3.3580776403337682E-2</v>
+        <v>-2.0391852468234894E-3</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" si="11"/>
-        <v>-6.4877908293512115E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.2">
+        <v>-5.7079585394291886E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F50">
         <v>512</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" si="10"/>
-        <v>-4.4078871261772458E-3</v>
+        <v>-1.9749727748148097E-2</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" si="10"/>
-        <v>-2.2226093882224233E-2</v>
+        <v>-3.5019164717009395E-2</v>
       </c>
       <c r="I50" s="2">
         <f t="shared" si="10"/>
-        <v>-3.5514531572549336E-2</v>
+        <v>-3.098069369952864E-2</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" si="11"/>
-        <v>-6.9988435005540001E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.2">
+        <v>-6.3364847269286678E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F51">
         <v>1024</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" si="10"/>
-        <v>1.3333333333332218E-3</v>
+        <v>-7.9691714836223945E-3</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" si="10"/>
-        <v>-1.9679111959401543E-2</v>
+        <v>-1.4097851214613263E-2</v>
       </c>
       <c r="I51" s="2">
         <f t="shared" si="10"/>
-        <v>-3.61241628257334E-2</v>
+        <v>-3.1246550618278253E-2</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" si="11"/>
-        <v>-6.8903373081428548E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.2">
+        <v>-6.378467946214901E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F52">
         <v>2048</v>
       </c>
@@ -3830,7 +6632,7 @@
         <v>-5.4556461202516573E-2</v>
       </c>
     </row>
-    <row r="53" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F53">
         <v>4096</v>
       </c>
@@ -3851,7 +6653,7 @@
         <v>4.3005962820063241E-2</v>
       </c>
     </row>
-    <row r="54" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F54">
         <v>8192</v>
       </c>
@@ -3872,7 +6674,7 @@
         <v>0.20704866999063545</v>
       </c>
     </row>
-    <row r="55" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F55">
         <v>16384</v>
       </c>
@@ -3893,7 +6695,7 @@
         <v>0.40598743841438201</v>
       </c>
     </row>
-    <row r="56" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F56">
         <v>32768</v>
       </c>
@@ -3914,7 +6716,7 @@
         <v>0.52059107189137066</v>
       </c>
     </row>
-    <row r="57" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F57">
         <v>65536</v>
       </c>
@@ -3935,7 +6737,7 @@
         <v>0.45855793711998188</v>
       </c>
     </row>
-    <row r="58" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F58">
         <v>131072</v>
       </c>
@@ -3956,7 +6758,7 @@
         <v>0.37397554373191433</v>
       </c>
     </row>
-    <row r="59" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F59">
         <v>262144</v>
       </c>
@@ -3977,7 +6779,7 @@
         <v>0.29182010103625788</v>
       </c>
     </row>
-    <row r="60" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F60">
         <v>524288</v>
       </c>
@@ -3998,7 +6800,7 @@
         <v>0.16090728550178826</v>
       </c>
     </row>
-    <row r="61" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F61">
         <v>1048576</v>
       </c>
@@ -4019,7 +6821,7 @@
         <v>0.15612821512081071</v>
       </c>
     </row>
-    <row r="62" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F62">
         <v>2097152</v>
       </c>
@@ -4040,7 +6842,7 @@
         <v>9.8058593475562714E-2</v>
       </c>
     </row>
-    <row r="63" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F63">
         <v>4194304</v>
       </c>
@@ -4067,4 +6869,1917 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4419A941-295E-4468-8151-071CA191D623}">
+  <dimension ref="A1:K63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J44" sqref="H44:J63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>86.716499999999996</v>
+      </c>
+      <c r="C2">
+        <v>129.732</v>
+      </c>
+      <c r="D2">
+        <v>167.495</v>
+      </c>
+      <c r="E2">
+        <v>189.3</v>
+      </c>
+      <c r="F2">
+        <f>A2*24</f>
+        <v>192</v>
+      </c>
+      <c r="G2">
+        <f>$F2/(1000*B2)</f>
+        <v>2.2141115012713842E-3</v>
+      </c>
+      <c r="H2">
+        <f>2*$F2/(1000*C2)</f>
+        <v>2.9599482009064842E-3</v>
+      </c>
+      <c r="I2">
+        <f>4*$F2/(1000*D2)</f>
+        <v>4.5852114988507121E-3</v>
+      </c>
+      <c r="J2">
+        <f>8*$F2/(1000*E2)</f>
+        <v>8.1141045958795562E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>85.8429</v>
+      </c>
+      <c r="C3">
+        <v>142.39599999999999</v>
+      </c>
+      <c r="D3">
+        <v>155.28</v>
+      </c>
+      <c r="E3">
+        <v>183.458</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F21" si="0">A3*24</f>
+        <v>384</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G21" si="1">$F3/(1000*B3)</f>
+        <v>4.4732878316086711E-3</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H21" si="2">2*$F3/(1000*C3)</f>
+        <v>5.393409927245147E-3</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I21" si="3">4*$F3/(1000*D3)</f>
+        <v>9.8918083462132926E-3</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J21" si="4">8*$F3/(1000*E3)</f>
+        <v>1.6744977051968299E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>83.500100000000003</v>
+      </c>
+      <c r="C4">
+        <v>143.297</v>
+      </c>
+      <c r="D4">
+        <v>158.416</v>
+      </c>
+      <c r="E4">
+        <v>183.54300000000001</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>768</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>9.1975937753367952E-3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>1.0718996210667355E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>1.9391980608019391E-2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>3.3474444680538076E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>84.160200000000003</v>
+      </c>
+      <c r="C5">
+        <v>138.19399999999999</v>
+      </c>
+      <c r="D5">
+        <v>147.749</v>
+      </c>
+      <c r="E5">
+        <v>173.46100000000001</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1536</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1.8250907198414452E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>2.2229619230936221E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>4.1584037793826016E-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>7.0840131211050317E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>128</v>
+      </c>
+      <c r="B6">
+        <v>83.678299999999993</v>
+      </c>
+      <c r="C6">
+        <v>139.41900000000001</v>
+      </c>
+      <c r="D6">
+        <v>151.34299999999999</v>
+      </c>
+      <c r="E6">
+        <v>180.75299999999999</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3072</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>3.6712026893471791E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>4.4068598971445785E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>8.1193051545165623E-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>0.13596454830625218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>256</v>
+      </c>
+      <c r="B7">
+        <v>85.433099999999996</v>
+      </c>
+      <c r="C7">
+        <v>143.16900000000001</v>
+      </c>
+      <c r="D7">
+        <v>154.69200000000001</v>
+      </c>
+      <c r="E7">
+        <v>184.95</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>6144</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>7.1915920176137821E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>8.5828636087421153E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0.15887052982701108</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>0.26575831305758313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>512</v>
+      </c>
+      <c r="B8">
+        <v>86.590999999999994</v>
+      </c>
+      <c r="C8">
+        <v>142.44900000000001</v>
+      </c>
+      <c r="D8">
+        <v>159.374</v>
+      </c>
+      <c r="E8">
+        <v>191.279</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>12288</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.14190851243200794</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.17252490364972728</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0.30840664098284537</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>0.51392991389540932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1024</v>
+      </c>
+      <c r="B9">
+        <v>93.889700000000005</v>
+      </c>
+      <c r="C9">
+        <v>155.636</v>
+      </c>
+      <c r="D9">
+        <v>168.13399999999999</v>
+      </c>
+      <c r="E9">
+        <v>202.38200000000001</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>24576</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.26175395171142307</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.3158138219949112</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0.58467650802336235</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0.97146979474459194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2048</v>
+      </c>
+      <c r="B10">
+        <v>103.02500000000001</v>
+      </c>
+      <c r="C10">
+        <v>161.16399999999999</v>
+      </c>
+      <c r="D10">
+        <v>180.465</v>
+      </c>
+      <c r="E10">
+        <v>221.44800000000001</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>49152</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.4770880854161611</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.60996252264773776</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>1.0894522483584075</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>1.775658393844153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4096</v>
+      </c>
+      <c r="B11">
+        <v>119.337</v>
+      </c>
+      <c r="C11">
+        <v>195.631</v>
+      </c>
+      <c r="D11">
+        <v>211.98400000000001</v>
+      </c>
+      <c r="E11">
+        <v>260.44299999999998</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>98304</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.82375122552100355</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>1.0049940960277257</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>1.8549324477319042</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>3.019593538701367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8192</v>
+      </c>
+      <c r="B12">
+        <v>151.45699999999999</v>
+      </c>
+      <c r="C12">
+        <v>234.077</v>
+      </c>
+      <c r="D12">
+        <v>275.988</v>
+      </c>
+      <c r="E12">
+        <v>365.55200000000002</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>196608</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1.2981110150075599</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>1.6798574827941233</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>2.8495151963128831</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>4.3027093272639734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>16384</v>
+      </c>
+      <c r="B13">
+        <v>215.00399999999999</v>
+      </c>
+      <c r="C13">
+        <v>336.29199999999997</v>
+      </c>
+      <c r="D13">
+        <v>397.423</v>
+      </c>
+      <c r="E13">
+        <v>604.94600000000003</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>393216</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1.8288776022771669</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>2.3385391267113103</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>3.9576572065532192</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>5.2000145467529331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>32768</v>
+      </c>
+      <c r="B14">
+        <v>389.99099999999999</v>
+      </c>
+      <c r="C14">
+        <v>541.39200000000005</v>
+      </c>
+      <c r="D14">
+        <v>694.46199999999999</v>
+      </c>
+      <c r="E14">
+        <v>1138.94</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>786432</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>2.0165388432040738</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>2.9052220941572835</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>4.5297338083293255</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>5.5239573638646462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>65536</v>
+      </c>
+      <c r="B15">
+        <v>950.67700000000002</v>
+      </c>
+      <c r="C15">
+        <v>1356.72</v>
+      </c>
+      <c r="D15">
+        <v>1728.33</v>
+      </c>
+      <c r="E15">
+        <v>2715.18</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1572864</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>1.6544672901521758</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>2.3186272775517422</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>3.6401937130061968</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>4.6342828099794486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>131072</v>
+      </c>
+      <c r="B16">
+        <v>1715.12</v>
+      </c>
+      <c r="C16">
+        <v>2606.1</v>
+      </c>
+      <c r="D16">
+        <v>3422.38</v>
+      </c>
+      <c r="E16">
+        <v>5435.32</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>3145728</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1.8341153971733757</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>2.4141268562219409</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>3.6766554269251221</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>4.6300537962806239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>262144</v>
+      </c>
+      <c r="B17">
+        <v>3287.32</v>
+      </c>
+      <c r="C17">
+        <v>4421.1400000000003</v>
+      </c>
+      <c r="D17">
+        <v>5801.78</v>
+      </c>
+      <c r="E17">
+        <v>8916.82</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>6291456</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>1.9138556635800592</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>2.8460786132083582</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>4.3376039767105956</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>5.6445737381712311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>524288</v>
+      </c>
+      <c r="B18">
+        <v>6462.52</v>
+      </c>
+      <c r="C18">
+        <v>8921.19</v>
+      </c>
+      <c r="D18">
+        <v>11763.7</v>
+      </c>
+      <c r="E18">
+        <v>17893</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>12582912</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>1.9470596609372195</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>2.820904386074055</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>4.278555896529153</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>5.6258478734700725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1048576</v>
+      </c>
+      <c r="B19">
+        <v>12797.5</v>
+      </c>
+      <c r="C19">
+        <v>17813.7</v>
+      </c>
+      <c r="D19">
+        <v>23514.5</v>
+      </c>
+      <c r="E19">
+        <v>35827.300000000003</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>25165824</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>1.9664640750146514</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>2.8254460331093485</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>4.2809031023411084</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>5.6193626647835586</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2097152</v>
+      </c>
+      <c r="B20">
+        <v>27040.7</v>
+      </c>
+      <c r="C20">
+        <v>36140.699999999997</v>
+      </c>
+      <c r="D20">
+        <v>51551.8</v>
+      </c>
+      <c r="E20">
+        <v>79908</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>50331648</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>1.86132932949221</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>2.7853167204841078</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>3.9053261379816031</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>5.0389596035440753</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4194304</v>
+      </c>
+      <c r="B21">
+        <v>50057.7</v>
+      </c>
+      <c r="C21">
+        <v>67477.3</v>
+      </c>
+      <c r="D21">
+        <v>101175</v>
+      </c>
+      <c r="E21">
+        <v>178706</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>100663296</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>2.0109452891363366</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>2.9836195579846851</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>3.9797695478131949</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>4.5063196982753793</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>77.668800000000005</v>
+      </c>
+      <c r="C23">
+        <v>92.149799999999999</v>
+      </c>
+      <c r="D23">
+        <v>112.893</v>
+      </c>
+      <c r="E23">
+        <v>123.727</v>
+      </c>
+      <c r="F23">
+        <f>A23*24</f>
+        <v>192</v>
+      </c>
+      <c r="G23">
+        <f>$F23/(1000*B23)</f>
+        <v>2.4720351028984611E-3</v>
+      </c>
+      <c r="H23">
+        <f>2*$F23/(1000*C23)</f>
+        <v>4.1671278722254417E-3</v>
+      </c>
+      <c r="I23">
+        <f>4*$F23/(1000*D23)</f>
+        <v>6.8029018628258621E-3</v>
+      </c>
+      <c r="J23">
+        <f>8*$F23/(1000*E23)</f>
+        <v>1.2414428540253946E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>92.63</v>
+      </c>
+      <c r="C24">
+        <v>94.751499999999993</v>
+      </c>
+      <c r="D24">
+        <v>110.529</v>
+      </c>
+      <c r="E24">
+        <v>127.116</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:F42" si="5">A24*24</f>
+        <v>384</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24:G42" si="6">$F24/(1000*B24)</f>
+        <v>4.1455252078160428E-3</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H42" si="7">2*$F24/(1000*C24)</f>
+        <v>8.1054125792203811E-3</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:I42" si="8">4*$F24/(1000*D24)</f>
+        <v>1.389680536329832E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24:J42" si="9">8*$F24/(1000*E24)</f>
+        <v>2.416690267157557E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>94.022099999999995</v>
+      </c>
+      <c r="C25">
+        <v>94.690799999999996</v>
+      </c>
+      <c r="D25">
+        <v>110.958</v>
+      </c>
+      <c r="E25">
+        <v>126.943</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="5"/>
+        <v>768</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="6"/>
+        <v>8.1682923482883293E-3</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="7"/>
+        <v>1.6221216844719867E-2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="8"/>
+        <v>2.7686151516790138E-2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="9"/>
+        <v>4.8399675444884709E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>64</v>
+      </c>
+      <c r="B26">
+        <v>92.491799999999998</v>
+      </c>
+      <c r="C26">
+        <v>93.982299999999995</v>
+      </c>
+      <c r="D26">
+        <v>110.34</v>
+      </c>
+      <c r="E26">
+        <v>126.30800000000001</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="5"/>
+        <v>1536</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="6"/>
+        <v>1.660687758266138E-2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="7"/>
+        <v>3.2687005957504768E-2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="8"/>
+        <v>5.5682436106579664E-2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="9"/>
+        <v>9.7285999303290363E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>128</v>
+      </c>
+      <c r="B27">
+        <v>92.440299999999993</v>
+      </c>
+      <c r="C27">
+        <v>95.004999999999995</v>
+      </c>
+      <c r="D27">
+        <v>110.941</v>
+      </c>
+      <c r="E27">
+        <v>127.628</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="5"/>
+        <v>3072</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="6"/>
+        <v>3.3232259090461631E-2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="7"/>
+        <v>6.467028051155202E-2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="8"/>
+        <v>0.11076157597281439</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="9"/>
+        <v>0.19255962641426647</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>256</v>
+      </c>
+      <c r="B28">
+        <v>93.997500000000002</v>
+      </c>
+      <c r="C28">
+        <v>96.565299999999993</v>
+      </c>
+      <c r="D28">
+        <v>112.98399999999999</v>
+      </c>
+      <c r="E28">
+        <v>132.09100000000001</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="5"/>
+        <v>6144</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="6"/>
+        <v>6.5363440517035021E-2</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="7"/>
+        <v>0.12725067907416018</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="8"/>
+        <v>0.21751752460525384</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="9"/>
+        <v>0.37210710797859053</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>512</v>
+      </c>
+      <c r="B29">
+        <v>98.459299999999999</v>
+      </c>
+      <c r="C29">
+        <v>102.328</v>
+      </c>
+      <c r="D29">
+        <v>118.358</v>
+      </c>
+      <c r="E29">
+        <v>136.22499999999999</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="5"/>
+        <v>12288</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="6"/>
+        <v>0.12480283731450457</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="7"/>
+        <v>0.24016886873582988</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="8"/>
+        <v>0.41528244816573445</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="9"/>
+        <v>0.7216296568177647</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1024</v>
+      </c>
+      <c r="B30">
+        <v>106.01300000000001</v>
+      </c>
+      <c r="C30">
+        <v>109.917</v>
+      </c>
+      <c r="D30">
+        <v>129.65100000000001</v>
+      </c>
+      <c r="E30">
+        <v>149.83000000000001</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="5"/>
+        <v>24576</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="6"/>
+        <v>0.23182062577231094</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="7"/>
+        <v>0.44717377657687163</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="8"/>
+        <v>0.75822014485040601</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="9"/>
+        <v>1.3122071681238736</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2048</v>
+      </c>
+      <c r="B31">
+        <v>118.30200000000001</v>
+      </c>
+      <c r="C31">
+        <v>123.40900000000001</v>
+      </c>
+      <c r="D31">
+        <v>149.1</v>
+      </c>
+      <c r="E31">
+        <v>174.476</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="5"/>
+        <v>49152</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="6"/>
+        <v>0.41547902824973371</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="7"/>
+        <v>0.79657075253830756</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="8"/>
+        <v>1.3186317907444669</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="9"/>
+        <v>2.2536967835117725</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4096</v>
+      </c>
+      <c r="B32">
+        <v>136.03899999999999</v>
+      </c>
+      <c r="C32">
+        <v>140.09899999999999</v>
+      </c>
+      <c r="D32">
+        <v>170.98</v>
+      </c>
+      <c r="E32">
+        <v>210.745</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="5"/>
+        <v>98304</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="6"/>
+        <v>0.72261630855857506</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="7"/>
+        <v>1.4033504878692924</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="8"/>
+        <v>2.2997777517838345</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="9"/>
+        <v>3.7316757218439345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>8192</v>
+      </c>
+      <c r="B33">
+        <v>175.422</v>
+      </c>
+      <c r="C33">
+        <v>188.18199999999999</v>
+      </c>
+      <c r="D33">
+        <v>213.30099999999999</v>
+      </c>
+      <c r="E33">
+        <v>291.34800000000001</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="5"/>
+        <v>196608</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="6"/>
+        <v>1.1207716249957247</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="7"/>
+        <v>2.0895516042979669</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="8"/>
+        <v>3.6869588046938362</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="9"/>
+        <v>5.3985749001194447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>16384</v>
+      </c>
+      <c r="B34">
+        <v>241.61199999999999</v>
+      </c>
+      <c r="C34">
+        <v>259.33199999999999</v>
+      </c>
+      <c r="D34">
+        <v>320.02999999999997</v>
+      </c>
+      <c r="E34">
+        <v>497.47500000000002</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="5"/>
+        <v>393216</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="6"/>
+        <v>1.6274688343294208</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="7"/>
+        <v>3.0325297302299754</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="8"/>
+        <v>4.9147392431959505</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="9"/>
+        <v>6.3233891150309063</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32768</v>
+      </c>
+      <c r="B35">
+        <v>424.233</v>
+      </c>
+      <c r="C35">
+        <v>447.48599999999999</v>
+      </c>
+      <c r="D35">
+        <v>564.99800000000005</v>
+      </c>
+      <c r="E35">
+        <v>982.69</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="5"/>
+        <v>786432</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="6"/>
+        <v>1.853773751688341</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="7"/>
+        <v>3.5148898513026108</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="8"/>
+        <v>5.5676798855925158</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="9"/>
+        <v>6.4022794574077277</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>65536</v>
+      </c>
+      <c r="B36">
+        <v>907.89400000000001</v>
+      </c>
+      <c r="C36">
+        <v>1056.1199999999999</v>
+      </c>
+      <c r="D36">
+        <v>1369.46</v>
+      </c>
+      <c r="E36">
+        <v>2276.92</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="5"/>
+        <v>1572864</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="6"/>
+        <v>1.7324313190746938</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="7"/>
+        <v>2.9785706169753436</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="8"/>
+        <v>4.5941144684766257</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="9"/>
+        <v>5.5262863868734957</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>131072</v>
+      </c>
+      <c r="B37">
+        <v>1671.12</v>
+      </c>
+      <c r="C37">
+        <v>2003.1</v>
+      </c>
+      <c r="D37">
+        <v>2705.17</v>
+      </c>
+      <c r="E37">
+        <v>4645.71</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="5"/>
+        <v>3145728</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="6"/>
+        <v>1.8824070084733593</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="7"/>
+        <v>3.1408596675153513</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="8"/>
+        <v>4.6514311485045301</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="9"/>
+        <v>5.4170027832129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>262144</v>
+      </c>
+      <c r="B38">
+        <v>3228.09</v>
+      </c>
+      <c r="C38">
+        <v>3961.96</v>
+      </c>
+      <c r="D38">
+        <v>5451.67</v>
+      </c>
+      <c r="E38">
+        <v>8335.3799999999992</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="5"/>
+        <v>6291456</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="6"/>
+        <v>1.9489716829456427</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="7"/>
+        <v>3.175931104806712</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="8"/>
+        <v>4.61616788983926</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="9"/>
+        <v>6.0383147498974257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>524288</v>
+      </c>
+      <c r="B39">
+        <v>6337.08</v>
+      </c>
+      <c r="C39">
+        <v>7872.47</v>
+      </c>
+      <c r="D39">
+        <v>10874</v>
+      </c>
+      <c r="E39">
+        <v>16902.3</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="5"/>
+        <v>12582912</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="6"/>
+        <v>1.9856009392338427</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="7"/>
+        <v>3.1966871896622027</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="8"/>
+        <v>4.6286231377597939</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="9"/>
+        <v>5.9555975222307023</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1048576</v>
+      </c>
+      <c r="B40">
+        <v>12553.3</v>
+      </c>
+      <c r="C40">
+        <v>15607</v>
+      </c>
+      <c r="D40">
+        <v>21607</v>
+      </c>
+      <c r="E40">
+        <v>33739.800000000003</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="5"/>
+        <v>25165824</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="6"/>
+        <v>2.0047178032867849</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="7"/>
+        <v>3.2249406035753188</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="8"/>
+        <v>4.6588279724163462</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="9"/>
+        <v>5.9670357263528535</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2097152</v>
+      </c>
+      <c r="B41">
+        <v>25469.7</v>
+      </c>
+      <c r="C41">
+        <v>31789.3</v>
+      </c>
+      <c r="D41">
+        <v>42266.1</v>
+      </c>
+      <c r="E41">
+        <v>72676.600000000006</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="5"/>
+        <v>50331648</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="6"/>
+        <v>1.9761382348437555</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="7"/>
+        <v>3.1665779366013092</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="8"/>
+        <v>4.7633113062241375</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="9"/>
+        <v>5.5403415129491469</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4194304</v>
+      </c>
+      <c r="B42">
+        <v>50204.4</v>
+      </c>
+      <c r="C42">
+        <v>61212.2</v>
+      </c>
+      <c r="D42">
+        <v>83938.7</v>
+      </c>
+      <c r="E42">
+        <v>147145</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="5"/>
+        <v>100663296</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="6"/>
+        <v>2.0050691971221646</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="7"/>
+        <v>3.2889945468387021</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="8"/>
+        <v>4.7969909469648684</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="9"/>
+        <v>5.4728761969485884</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2">
+        <f t="shared" ref="G44:J59" si="10">(H23-H2)/H2</f>
+        <v>0.40783810708216406</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="10"/>
+        <v>0.48366152020054393</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="10"/>
+        <v>0.52998132986332802</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>16</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2">
+        <f t="shared" si="10"/>
+        <v>0.50283636670659559</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="10"/>
+        <v>0.4048801671959395</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="10"/>
+        <v>0.44323295257874695</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>32</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2">
+        <f t="shared" si="10"/>
+        <v>0.51331491549337427</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="10"/>
+        <v>0.42771138629030814</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="10"/>
+        <v>0.44586940595385316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>64</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2">
+        <f t="shared" si="10"/>
+        <v>0.47042581422246543</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="10"/>
+        <v>0.33903389523291644</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="10"/>
+        <v>0.37331760458561614</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>128</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2">
+        <f t="shared" si="10"/>
+        <v>0.46749118467449075</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="10"/>
+        <v>0.36417555277129282</v>
+      </c>
+      <c r="J48" s="2">
+        <f t="shared" si="10"/>
+        <v>0.41624878553295513</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>256</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2">
+        <f t="shared" si="10"/>
+        <v>0.48261331969144211</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="10"/>
+        <v>0.36914961410465208</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" si="10"/>
+        <v>0.40017109416992835</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>512</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2">
+        <f t="shared" si="10"/>
+        <v>0.39208232350871697</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="10"/>
+        <v>0.3465418476148634</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="10"/>
+        <v>0.40414020921269955</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>1024</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2">
+        <f t="shared" si="10"/>
+        <v>0.41594111920812976</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="10"/>
+        <v>0.29681992425820064</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="10"/>
+        <v>0.35074417673363129</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>2048</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2">
+        <f t="shared" si="10"/>
+        <v>0.30593392702315053</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="10"/>
+        <v>0.21036217303822943</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="10"/>
+        <v>0.26921754281391141</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>4096</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2">
+        <f t="shared" si="10"/>
+        <v>0.39637684780048382</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="10"/>
+        <v>0.23981752251725358</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="10"/>
+        <v>0.23582054141260739</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>8192</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2">
+        <f t="shared" si="10"/>
+        <v>0.24388623779107466</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="10"/>
+        <v>0.29388985518117589</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" si="10"/>
+        <v>0.25469198346993971</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>16384</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2">
+        <f t="shared" si="10"/>
+        <v>0.29676245122082895</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="10"/>
+        <v>0.24183045339499423</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" si="10"/>
+        <v>0.21603296648072778</v>
+      </c>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>32768</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2">
+        <f t="shared" si="10"/>
+        <v>0.20985237526984088</v>
+      </c>
+      <c r="I56" s="2">
+        <f t="shared" si="10"/>
+        <v>0.22914063412613858</v>
+      </c>
+      <c r="J56" s="2">
+        <f t="shared" si="10"/>
+        <v>0.15900233033815342</v>
+      </c>
+    </row>
+    <row r="57" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>65536</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2">
+        <f>(H36-H15)/H15</f>
+        <v>0.28462674696057272</v>
+      </c>
+      <c r="I57" s="2">
+        <f t="shared" si="10"/>
+        <v>0.26205219575599137</v>
+      </c>
+      <c r="J57" s="2">
+        <f t="shared" si="10"/>
+        <v>0.1924793141612354</v>
+      </c>
+    </row>
+    <row r="58" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>131072</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2">
+        <f t="shared" si="10"/>
+        <v>0.30103339823273922</v>
+      </c>
+      <c r="I58" s="2">
+        <f t="shared" si="10"/>
+        <v>0.26512566677879768</v>
+      </c>
+      <c r="J58" s="2">
+        <f t="shared" si="10"/>
+        <v>0.16996540894717926</v>
+      </c>
+    </row>
+    <row r="59" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>262144</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2">
+        <f t="shared" si="10"/>
+        <v>0.11589718220274814</v>
+      </c>
+      <c r="I59" s="2">
+        <f t="shared" si="10"/>
+        <v>6.4220688339536286E-2</v>
+      </c>
+      <c r="J59" s="2">
+        <f>(J38-J17)/J17</f>
+        <v>6.9755668007937408E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>524288</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2">
+        <f t="shared" ref="G60:J63" si="11">(H39-H18)/H18</f>
+        <v>0.13321359116008072</v>
+      </c>
+      <c r="I60" s="2">
+        <f t="shared" si="11"/>
+        <v>8.1819017840721028E-2</v>
+      </c>
+      <c r="J60" s="2">
+        <f t="shared" si="11"/>
+        <v>5.8613324813782647E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>1048576</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2">
+        <f t="shared" si="11"/>
+        <v>0.14139168321906834</v>
+      </c>
+      <c r="I61" s="2">
+        <f t="shared" si="11"/>
+        <v>8.8281575415374638E-2</v>
+      </c>
+      <c r="J61" s="2">
+        <f>(J40-J19)/J19</f>
+        <v>6.1870550507116318E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>2097152</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2">
+        <f t="shared" si="11"/>
+        <v>0.1368825359476302</v>
+      </c>
+      <c r="I62" s="2">
+        <f t="shared" si="11"/>
+        <v>0.21969616311890622</v>
+      </c>
+      <c r="J62" s="2">
+        <f t="shared" si="11"/>
+        <v>9.9501077375661481E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>4194304</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2">
+        <f t="shared" si="11"/>
+        <v>0.10235051182607391</v>
+      </c>
+      <c r="I63" s="2">
+        <f t="shared" si="11"/>
+        <v>0.20534389977447828</v>
+      </c>
+      <c r="J63" s="2">
+        <f t="shared" si="11"/>
+        <v>0.21448910938190238</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>